--- a/data/excel/instance_0928_139883_Z1_remplissage.xlsx
+++ b/data/excel/instance_0928_139883_Z1_remplissage.xlsx
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>99.63107638888889</v>
+        <v>88.17274305555556</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>99.48350694444444</v>
+        <v>98.36263020833333</v>
       </c>
     </row>
     <row r="4">
@@ -500,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>99.11241319444444</v>
+        <v>98.76085069444444</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>99.84049479166667</v>
+        <v>99.88606770833334</v>
       </c>
     </row>
     <row r="6">
@@ -532,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>99.43142361111111</v>
+        <v>99.14171006944444</v>
       </c>
     </row>
     <row r="7">
@@ -548,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>99.99565972222221</v>
+        <v>99.21766493055556</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +564,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>93.92035590277777</v>
+        <v>90.69878472222223</v>
       </c>
     </row>
     <row r="9">
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>93.08919270833333</v>
+        <v>92.88736979166666</v>
       </c>
     </row>
     <row r="10">
@@ -596,7 +596,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>60.83658854166667</v>
+        <v>78.212890625</v>
       </c>
     </row>
   </sheetData>
